--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N2">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q2">
-        <v>95.30054467532221</v>
+        <v>118.344999065914</v>
       </c>
       <c r="R2">
-        <v>857.7049020778999</v>
+        <v>1065.104991593226</v>
       </c>
       <c r="S2">
-        <v>0.007919338791533805</v>
+        <v>0.01108914736834913</v>
       </c>
       <c r="T2">
-        <v>0.007919338791533804</v>
+        <v>0.01108914736834913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P3">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q3">
-        <v>197.262665246416</v>
+        <v>212.038083372192</v>
       </c>
       <c r="R3">
-        <v>1775.363987217744</v>
+        <v>1908.342750349728</v>
       </c>
       <c r="S3">
-        <v>0.01639224500058722</v>
+        <v>0.01986836429739573</v>
       </c>
       <c r="T3">
-        <v>0.01639224500058722</v>
+        <v>0.01986836429739573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N4">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O4">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P4">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q4">
-        <v>18.56817597142966</v>
+        <v>31.55206747194333</v>
       </c>
       <c r="R4">
-        <v>167.113583742867</v>
+        <v>283.96860724749</v>
       </c>
       <c r="S4">
-        <v>0.00154298883347984</v>
+        <v>0.002956487631366668</v>
       </c>
       <c r="T4">
-        <v>0.00154298883347984</v>
+        <v>0.002956487631366667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N5">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q5">
-        <v>42.31615063152766</v>
+        <v>61.84492848121867</v>
       </c>
       <c r="R5">
-        <v>380.845355683749</v>
+        <v>556.604356330968</v>
       </c>
       <c r="S5">
-        <v>0.003516411520483387</v>
+        <v>0.005794985266181595</v>
       </c>
       <c r="T5">
-        <v>0.003516411520483387</v>
+        <v>0.005794985266181594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N6">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O6">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P6">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q6">
-        <v>26.00355213217189</v>
+        <v>36.401051609596</v>
       </c>
       <c r="R6">
-        <v>234.031969189547</v>
+        <v>327.609464486364</v>
       </c>
       <c r="S6">
-        <v>0.002160857944931616</v>
+        <v>0.003410846498354103</v>
       </c>
       <c r="T6">
-        <v>0.002160857944931616</v>
+        <v>0.003410846498354102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N7">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q7">
-        <v>2097.8397660267</v>
+        <v>2423.582835175629</v>
       </c>
       <c r="R7">
-        <v>18880.5578942403</v>
+        <v>21812.24551658066</v>
       </c>
       <c r="S7">
-        <v>0.1743274804369451</v>
+        <v>0.227094236603063</v>
       </c>
       <c r="T7">
-        <v>0.1743274804369451</v>
+        <v>0.227094236603063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P8">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q8">
         <v>4342.320024677711</v>
@@ -948,10 +948,10 @@
         <v>39080.8802220994</v>
       </c>
       <c r="S8">
-        <v>0.3608405758208533</v>
+        <v>0.406883493635124</v>
       </c>
       <c r="T8">
-        <v>0.3608405758208534</v>
+        <v>0.406883493635124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N9">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O9">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P9">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q9">
-        <v>408.7390902974909</v>
+        <v>646.1536164845849</v>
       </c>
       <c r="R9">
-        <v>3678.651812677419</v>
+        <v>5815.382548361265</v>
       </c>
       <c r="S9">
-        <v>0.03396563308674724</v>
+        <v>0.06054580026485523</v>
       </c>
       <c r="T9">
-        <v>0.03396563308674726</v>
+        <v>0.06054580026485522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N10">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q10">
-        <v>931.5004845190768</v>
+        <v>1266.519990644172</v>
       </c>
       <c r="R10">
-        <v>8383.504360671694</v>
+        <v>11398.67991579755</v>
       </c>
       <c r="S10">
-        <v>0.07740635634892312</v>
+        <v>0.1186752877778217</v>
       </c>
       <c r="T10">
-        <v>0.07740635634892315</v>
+        <v>0.1186752877778217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N11">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O11">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P11">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q11">
-        <v>572.413157833131</v>
+        <v>745.4557823286059</v>
       </c>
       <c r="R11">
-        <v>5151.71842049818</v>
+        <v>6709.102040957454</v>
       </c>
       <c r="S11">
-        <v>0.04756671371665431</v>
+        <v>0.06985059860641657</v>
       </c>
       <c r="T11">
-        <v>0.04756671371665432</v>
+        <v>0.06985059860641657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N12">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q12">
-        <v>386.7934416735333</v>
+        <v>79.810183657992</v>
       </c>
       <c r="R12">
-        <v>3481.1409750618</v>
+        <v>718.2916529219281</v>
       </c>
       <c r="S12">
-        <v>0.03214198111240463</v>
+        <v>0.007478363218251022</v>
       </c>
       <c r="T12">
-        <v>0.03214198111240463</v>
+        <v>0.007478363218251021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P13">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q13">
-        <v>800.624020191072</v>
+        <v>142.995466728576</v>
       </c>
       <c r="R13">
-        <v>7205.616181719648</v>
+        <v>1286.959200557184</v>
       </c>
       <c r="S13">
-        <v>0.06653070957919437</v>
+        <v>0.0133989422119634</v>
       </c>
       <c r="T13">
-        <v>0.06653070957919437</v>
+        <v>0.0133989422119634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N14">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O14">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P14">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q14">
-        <v>75.36209487634599</v>
+        <v>21.27826540708</v>
       </c>
       <c r="R14">
-        <v>678.258853887114</v>
+        <v>191.50438866372</v>
       </c>
       <c r="S14">
-        <v>0.006262482165225673</v>
+        <v>0.001993813196200503</v>
       </c>
       <c r="T14">
-        <v>0.006262482165225672</v>
+        <v>0.001993813196200503</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N15">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q15">
-        <v>171.747282210262</v>
+        <v>41.707339890656</v>
       </c>
       <c r="R15">
-        <v>1545.725539892358</v>
+        <v>375.366059015904</v>
       </c>
       <c r="S15">
-        <v>0.01427195320847344</v>
+        <v>0.003908055617387898</v>
       </c>
       <c r="T15">
-        <v>0.01427195320847344</v>
+        <v>0.003908055617387897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N16">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O16">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P16">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q16">
-        <v>105.5398314795193</v>
+        <v>24.548351322288</v>
       </c>
       <c r="R16">
-        <v>949.858483315674</v>
+        <v>220.935161900592</v>
       </c>
       <c r="S16">
-        <v>0.008770208862238827</v>
+        <v>0.002300226351865048</v>
       </c>
       <c r="T16">
-        <v>0.008770208862238827</v>
+        <v>0.002300226351865048</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N17">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q17">
-        <v>41.72526192502221</v>
+        <v>94.05123755966102</v>
       </c>
       <c r="R17">
-        <v>375.5273573251999</v>
+        <v>846.4611380369493</v>
       </c>
       <c r="S17">
-        <v>0.003467309515129166</v>
+        <v>0.008812776557578141</v>
       </c>
       <c r="T17">
-        <v>0.003467309515129166</v>
+        <v>0.00881277655757814</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.568944</v>
       </c>
       <c r="O18">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P18">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q18">
-        <v>86.36714935340798</v>
+        <v>168.511084611408</v>
       </c>
       <c r="R18">
-        <v>777.3043441806719</v>
+        <v>1516.599761502672</v>
       </c>
       <c r="S18">
-        <v>0.007176986432961592</v>
+        <v>0.01578980324648517</v>
       </c>
       <c r="T18">
-        <v>0.007176986432961593</v>
+        <v>0.01578980324648517</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N19">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O19">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P19">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q19">
-        <v>8.129670281710665</v>
+        <v>25.075085696265</v>
       </c>
       <c r="R19">
-        <v>73.16703253539599</v>
+        <v>225.675771266385</v>
       </c>
       <c r="S19">
-        <v>0.0006755639586706606</v>
+        <v>0.002349582346145405</v>
       </c>
       <c r="T19">
-        <v>0.0006755639586706607</v>
+        <v>0.002349582346145405</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N20">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q20">
-        <v>18.52720228173466</v>
+        <v>49.14945376954801</v>
       </c>
       <c r="R20">
-        <v>166.744820535612</v>
+        <v>442.3450839259321</v>
       </c>
       <c r="S20">
-        <v>0.00153958397854077</v>
+        <v>0.004605395582628892</v>
       </c>
       <c r="T20">
-        <v>0.00153958397854077</v>
+        <v>0.004605395582628891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N21">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O21">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P21">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q21">
-        <v>11.38508732969289</v>
+        <v>28.928674463454</v>
       </c>
       <c r="R21">
-        <v>102.465785967236</v>
+        <v>260.3580701710861</v>
       </c>
       <c r="S21">
-        <v>0.000946084453580087</v>
+        <v>0.002710670808468793</v>
       </c>
       <c r="T21">
-        <v>0.0009460844535800873</v>
+        <v>0.002710670808468793</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N22">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O22">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P22">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q22">
-        <v>400.6999205259889</v>
+        <v>28.77156846238767</v>
       </c>
       <c r="R22">
-        <v>3606.2992847339</v>
+        <v>258.944116161489</v>
       </c>
       <c r="S22">
-        <v>0.03329758959087762</v>
+        <v>0.002695949682844328</v>
       </c>
       <c r="T22">
-        <v>0.03329758959087762</v>
+        <v>0.002695949682844327</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.568944</v>
       </c>
       <c r="O23">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P23">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q23">
-        <v>829.4090506646561</v>
+        <v>51.549860835088</v>
       </c>
       <c r="R23">
-        <v>7464.681455981904</v>
+        <v>463.948747515792</v>
       </c>
       <c r="S23">
-        <v>0.06892270439120268</v>
+        <v>0.004830318206346805</v>
       </c>
       <c r="T23">
-        <v>0.0689227043912027</v>
+        <v>0.004830318206346804</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N24">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O24">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P24">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q24">
-        <v>78.07160663574967</v>
+        <v>7.670813947053888</v>
       </c>
       <c r="R24">
-        <v>702.644459721747</v>
+        <v>69.03732552348499</v>
       </c>
       <c r="S24">
-        <v>0.006487638712394063</v>
+        <v>0.0007187695886219194</v>
       </c>
       <c r="T24">
-        <v>0.006487638712394064</v>
+        <v>0.0007187695886219193</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N25">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O25">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P25">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q25">
-        <v>177.9221540945677</v>
+        <v>15.03549459540578</v>
       </c>
       <c r="R25">
-        <v>1601.299386851109</v>
+        <v>135.319451358652</v>
       </c>
       <c r="S25">
-        <v>0.01478507621960347</v>
+        <v>0.001408853915589694</v>
       </c>
       <c r="T25">
-        <v>0.01478507621960348</v>
+        <v>0.001408853915589694</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N26">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O26">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P26">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q26">
-        <v>109.3343307559586</v>
+        <v>8.849679806960667</v>
       </c>
       <c r="R26">
-        <v>984.0089768036271</v>
+        <v>79.647118262646</v>
       </c>
       <c r="S26">
-        <v>0.009085526318363854</v>
+        <v>0.0008292315206951192</v>
       </c>
       <c r="T26">
-        <v>0.009085526318363856</v>
+        <v>0.000829231520695119</v>
       </c>
     </row>
   </sheetData>
